--- a/Python/db_example_applications.xlsx
+++ b/Python/db_example_applications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8dd30036228da48/Documentos/GitHub/myideas/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_AD4D9D64A577C15A4A5418AF305E5E045BDEDD86" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCD5724D-3F12-4F4C-9171-1F67A96589A9}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D8437B8B-A4A7-4E16-804B-BF03C3AC8325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7410D3F-EB0F-4741-A2C5-D900D40C2FDF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1560" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="134">
   <si>
     <t>id</t>
   </si>
@@ -57,9 +57,6 @@
     <t>5 years</t>
   </si>
   <si>
-    <t>Looking to contribute to innovative projects.</t>
-  </si>
-  <si>
     <t>Bob Smith</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>8 years</t>
   </si>
   <si>
-    <t>Passionate about leading teams to success.</t>
-  </si>
-  <si>
     <t>Charlie Brown</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>3 years</t>
   </si>
   <si>
-    <t>Eager to develop creative marketing strategies.</t>
-  </si>
-  <si>
     <t>David Wilson</t>
   </si>
   <si>
@@ -102,9 +93,6 @@
     <t>4 years</t>
   </si>
   <si>
-    <t>Excited to analyze big data for impactful insights.</t>
-  </si>
-  <si>
     <t>Eva Taylor</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t>7 years</t>
   </si>
   <si>
-    <t>Aiming to improve product design efficiency.</t>
-  </si>
-  <si>
     <t>Frank Harris</t>
   </si>
   <si>
@@ -132,9 +117,6 @@
     <t>6 years</t>
   </si>
   <si>
-    <t>Driven by the challenge of solving complex problems.</t>
-  </si>
-  <si>
     <t>Grace Lee</t>
   </si>
   <si>
@@ -147,9 +129,6 @@
     <t>2 years</t>
   </si>
   <si>
-    <t>Motivated to inspire and educate the next generation.</t>
-  </si>
-  <si>
     <t>Hannah King</t>
   </si>
   <si>
@@ -159,9 +138,6 @@
     <t>MSc in Environmental Science</t>
   </si>
   <si>
-    <t>Committed to advancing environmental sustainability.</t>
-  </si>
-  <si>
     <t>Ian Walker</t>
   </si>
   <si>
@@ -174,9 +150,6 @@
     <t>9 years</t>
   </si>
   <si>
-    <t>Aspiring to innovate in the tech industry.</t>
-  </si>
-  <si>
     <t>Jane White</t>
   </si>
   <si>
@@ -186,9 +159,6 @@
     <t>BA in Graphic Design</t>
   </si>
   <si>
-    <t>Desires to create visually appealing designs.</t>
-  </si>
-  <si>
     <t>Kyle Adams</t>
   </si>
   <si>
@@ -198,9 +168,6 @@
     <t>10 years</t>
   </si>
   <si>
-    <t>Focused on driving business growth and efficiency.</t>
-  </si>
-  <si>
     <t>Laura Clark</t>
   </si>
   <si>
@@ -210,9 +177,6 @@
     <t>MSc in Finance</t>
   </si>
   <si>
-    <t>Keen on optimizing financial performance.</t>
-  </si>
-  <si>
     <t>Mike Allen</t>
   </si>
   <si>
@@ -222,9 +186,6 @@
     <t>BSc in Civil Engineering</t>
   </si>
   <si>
-    <t>Dedicated to improving infrastructure.</t>
-  </si>
-  <si>
     <t>Nina Scott</t>
   </si>
   <si>
@@ -234,9 +195,6 @@
     <t>BA in Psychology</t>
   </si>
   <si>
-    <t>Passionate about understanding human behavior.</t>
-  </si>
-  <si>
     <t>Oscar Baker</t>
   </si>
   <si>
@@ -246,9 +204,6 @@
     <t>PhD in Physics</t>
   </si>
   <si>
-    <t>Inspired to conduct groundbreaking research.</t>
-  </si>
-  <si>
     <t>Paul Mitchell</t>
   </si>
   <si>
@@ -258,9 +213,6 @@
     <t>MSc in Artificial Intelligence</t>
   </si>
   <si>
-    <t>Excited about AI advancements.</t>
-  </si>
-  <si>
     <t>Quincy Roberts</t>
   </si>
   <si>
@@ -270,9 +222,6 @@
     <t>BSc in Nursing</t>
   </si>
   <si>
-    <t>Driven to provide high-quality patient care.</t>
-  </si>
-  <si>
     <t>Rachel Evans</t>
   </si>
   <si>
@@ -282,9 +231,6 @@
     <t>BA in History</t>
   </si>
   <si>
-    <t>Motivated by a love for historical research.</t>
-  </si>
-  <si>
     <t>Sam Turner</t>
   </si>
   <si>
@@ -294,18 +240,12 @@
     <t>MSc in Cybersecurity</t>
   </si>
   <si>
-    <t>Aiming to protect organizations from cyber threats.</t>
-  </si>
-  <si>
     <t>Tina Lewis</t>
   </si>
   <si>
     <t>Washington, D.C., USA</t>
   </si>
   <si>
-    <t>Passionate about strategic business management.</t>
-  </si>
-  <si>
     <t>Umar Patel</t>
   </si>
   <si>
@@ -315,9 +255,6 @@
     <t>BSc in Biomedical Engineering</t>
   </si>
   <si>
-    <t>Keen on advancing medical technology.</t>
-  </si>
-  <si>
     <t>Vera Simmons</t>
   </si>
   <si>
@@ -327,9 +264,6 @@
     <t>MSc in Geology</t>
   </si>
   <si>
-    <t>Excited about exploring earth's geological secrets.</t>
-  </si>
-  <si>
     <t>Will Anderson</t>
   </si>
   <si>
@@ -339,9 +273,6 @@
     <t>BA in English Literature</t>
   </si>
   <si>
-    <t>Inspired to write compelling narratives.</t>
-  </si>
-  <si>
     <t>Xander Brooks</t>
   </si>
   <si>
@@ -351,9 +282,6 @@
     <t>PhD in Mathematics</t>
   </si>
   <si>
-    <t>Driven to solve complex mathematical problems.</t>
-  </si>
-  <si>
     <t>Yara Diaz</t>
   </si>
   <si>
@@ -363,9 +291,6 @@
     <t>BSc in Architecture</t>
   </si>
   <si>
-    <t>Dedicated to innovative architectural designs.</t>
-  </si>
-  <si>
     <t>Zane Morris</t>
   </si>
   <si>
@@ -375,9 +300,6 @@
     <t>MSc in Robotics</t>
   </si>
   <si>
-    <t>Eager to develop cutting-edge robotic technology.</t>
-  </si>
-  <si>
     <t>Ava Phillips</t>
   </si>
   <si>
@@ -387,9 +309,6 @@
     <t>BA in Sociology</t>
   </si>
   <si>
-    <t>Motivated by social change and community development.</t>
-  </si>
-  <si>
     <t>Ben Parker</t>
   </si>
   <si>
@@ -399,9 +318,6 @@
     <t>BSc in IT Management</t>
   </si>
   <si>
-    <t>Aspires to streamline IT operations.</t>
-  </si>
-  <si>
     <t>Cora Watson</t>
   </si>
   <si>
@@ -411,9 +327,6 @@
     <t>MSc in Biotechnology</t>
   </si>
   <si>
-    <t>Passionate about biotechnological advancements.</t>
-  </si>
-  <si>
     <t>Dylan Carter</t>
   </si>
   <si>
@@ -423,7 +336,97 @@
     <t>PhD in Neuroscience</t>
   </si>
   <si>
-    <t>Inspired to research the human brain.</t>
+    <t>availability</t>
+  </si>
+  <si>
+    <t>I am passionate about making a positive impact in my community and believe that volunteering allows me to give back in meaningful ways. I enjoy working with people and hope to bring joy and support to those in need. Volunteering is a way for me to use my skills for the greater good and learn from diverse experiences. I look forward to contributing to this cause.</t>
+  </si>
+  <si>
+    <t>Having grown up in a community that faced numerous challenges, I understand the importance of support and solidarity. I want to volunteer to help others overcome their difficulties and find hope. My previous experiences in community service have been incredibly fulfilling, and I want to continue this journey. I am dedicated to making a difference wherever I can.</t>
+  </si>
+  <si>
+    <t>I have always believed in the power of education and want to volunteer to help underprivileged children achieve their academic goals. My background in tutoring and mentoring makes me confident that I can positively influence their learning journey. Volunteering in this capacity allows me to give back and inspire future generations. I am excited to be part of this impactful work.</t>
+  </si>
+  <si>
+    <t>As a healthcare professional, I have seen firsthand the difference that volunteers can make in patients' lives. I am eager to use my skills to provide comfort and support to those in medical facilities. Volunteering is a way for me to extend my care beyond the clinic and into the community. I am committed to offering my time and expertise to help improve others' well-being.</t>
+  </si>
+  <si>
+    <t>Environmental conservation is a cause that I am deeply passionate about. I want to volunteer to help protect natural habitats and promote sustainable practices. My experience in environmental science has equipped me with the knowledge and skills needed for this work. I am motivated by the desire to preserve our planet for future generations.</t>
+  </si>
+  <si>
+    <t>I believe that every individual deserves a chance to thrive, regardless of their circumstances. Volunteering at a shelter allows me to support those who are going through tough times. My empathy and compassion drive me to help others rebuild their lives and regain their dignity. I am dedicated to making a positive impact on the lives of those in need.</t>
+  </si>
+  <si>
+    <t>Arts and culture have always been close to my heart, and I want to volunteer to bring the joy of creativity to others. My background in the arts enables me to lead workshops and activities that inspire and engage participants. Volunteering in this field allows me to share my passion and help others discover their artistic potential. I am eager to contribute to this vibrant community.</t>
+  </si>
+  <si>
+    <t>I have a strong desire to support the elderly population and ensure they feel valued and cared for. Volunteering at a senior center allows me to provide companionship and assistance to those who may feel isolated. My background in caregiving and my patience make me well-suited for this role. I am committed to making a positive difference in the lives of seniors.</t>
+  </si>
+  <si>
+    <t>Volunteering in disaster relief efforts is a cause that resonates deeply with me. I want to help communities recover and rebuild after natural disasters. My experience in logistics and coordination makes me confident in my ability to contribute effectively. I am driven by the need to provide immediate support and long-term recovery solutions.</t>
+  </si>
+  <si>
+    <t>As a firm believer in social justice, I want to volunteer to support advocacy and awareness campaigns. My background in communication and public relations equips me to effectively promote important causes. Volunteering in this capacity allows me to use my voice to drive change and support marginalized communities. I am passionate about making a difference through advocacy.</t>
+  </si>
+  <si>
+    <t>Youth empowerment is a cause that I am passionate about, and I want to volunteer to mentor and guide young individuals. My experience in coaching and leadership development makes me well-suited for this role. Volunteering allows me to help youth build confidence and achieve their goals. I am committed to supporting the next generation.</t>
+  </si>
+  <si>
+    <t>I want to volunteer to help refugees and immigrants adjust to their new lives and feel welcomed in our community. My background in social work and my language skills make me an effective advocate and support system. Volunteering in this capacity allows me to provide practical assistance and emotional support. I am dedicated to helping others build a new life with dignity.</t>
+  </si>
+  <si>
+    <t>Animal welfare is a cause that I am deeply committed to, and I want to volunteer to support rescue and rehabilitation efforts. My experience in animal care and my love for animals drive me to make a difference. Volunteering in this field allows me to help vulnerable animals find loving homes. I am passionate about promoting kindness and compassion towards all creatures.</t>
+  </si>
+  <si>
+    <t>I believe that access to nutritious food is a basic human right, and I want to volunteer to support food distribution programs. My background in nutrition and my organizational skills make me an effective volunteer in this role. Volunteering allows me to help combat food insecurity and promote health and well-being. I am motivated by the desire to ensure everyone has enough to eat.</t>
+  </si>
+  <si>
+    <t>As someone who has benefited from community support in the past, I want to volunteer to give back and pay it forward. My experience in community organizing and my dedication to service make me an enthusiastic and capable volunteer. Volunteering allows me to strengthen community bonds and support others in their time of need. I am committed to making a positive impact.</t>
+  </si>
+  <si>
+    <t>Mental health is a cause that I am passionate about, and I want to volunteer to support individuals struggling with mental health issues. My background in psychology and my empathetic nature make me well-suited for this role. Volunteering in this field allows me to provide a listening ear and practical support. I am dedicated to promoting mental well-being in our community.</t>
+  </si>
+  <si>
+    <t>I want to volunteer to support veterans and their families, recognizing their sacrifices and contributions. My experience in social services and my respect for their service make me an effective advocate. Volunteering in this capacity allows me to provide practical assistance and emotional support. I am committed to honoring and supporting our veterans.</t>
+  </si>
+  <si>
+    <t>Education is a powerful tool for change, and I want to volunteer to support literacy and learning programs. My background in education and my passion for teaching make me an effective volunteer in this role. Volunteering allows me to help others develop essential skills and achieve their potential. I am driven by the desire to make education accessible to all.</t>
+  </si>
+  <si>
+    <t>I am passionate about supporting survivors of domestic violence and want to volunteer to provide them with the resources and support they need. My background in counseling and my compassionate nature make me well-suited for this role. Volunteering allows me to help others rebuild their lives in a safe and supportive environment. I am committed to making a positive impact.</t>
+  </si>
+  <si>
+    <t>I believe that community gardens can promote health, sustainability, and social connections, and I want to volunteer to support this initiative. My experience in gardening and my passion for the environment make me an effective volunteer. Volunteering allows me to contribute to a greener and more connected community. I am dedicated to promoting environmental stewardship.</t>
+  </si>
+  <si>
+    <t>As a survivor of cancer, I am passionate about supporting others who are going through similar experiences. I want to volunteer to provide hope and encouragement to cancer patients and their families. My personal experience and my empathetic nature make me well-suited for this role. Volunteering allows me to offer support and strength to others on their journey.</t>
+  </si>
+  <si>
+    <t>I want to volunteer to support individuals with disabilities and help them achieve their fullest potential. My background in special education and my dedication to inclusivity make me an effective advocate. Volunteering allows me to provide practical assistance and promote equal opportunities. I am committed to making a positive difference in the lives of those with disabilities.</t>
+  </si>
+  <si>
+    <t>As someone who values cultural exchange and diversity, I want to volunteer to support international students and visitors. My experience in intercultural communication and my welcoming nature make me an effective volunteer. Volunteering allows me to help others feel at home and build cross-cultural connections. I am passionate about promoting global understanding.</t>
+  </si>
+  <si>
+    <t>I want to volunteer to support crisis intervention services, helping individuals in urgent need find immediate assistance. My background in crisis management and my calm demeanor make me well-suited for this role. Volunteering allows me to provide critical support during challenging times. I am dedicated to making a positive impact in moments of crisis.</t>
+  </si>
+  <si>
+    <t>As an advocate for women's rights, I want to volunteer to support initiatives that empower women and girls. My experience in gender studies and my dedication to equality make me an effective volunteer. Volunteering allows me to promote gender equity and support women in achieving their goals. I am committed to making a positive difference in the lives of women and girls.</t>
+  </si>
+  <si>
+    <t>I believe in the transformative power of sports and want to volunteer to support youth sports programs. My background in coaching and my passion for physical activity make me an effective volunteer. Volunteering allows me to help youth develop skills, confidence, and a love for sports. I am dedicated to promoting health and teamwork through sports.</t>
+  </si>
+  <si>
+    <t>As a passionate advocate for the arts, I want to volunteer to support local arts initiatives and events. My experience in arts administration and my creativity make me an effective volunteer. Volunteering allows me to help bring artistic experiences to the community and support local artists. I am committed to promoting a vibrant cultural scene.</t>
+  </si>
+  <si>
+    <t>I want to volunteer to support literacy programs for adults, helping them achieve their educational and career goals. My background in adult education and my patience make me well-suited for this role. Volunteering allows me to provide essential skills and support to adult learners. I am dedicated to making education accessible to all.</t>
+  </si>
+  <si>
+    <t>As someone who values the importance of a clean and safe environment, I want to volunteer to support community clean-up efforts. My experience in environmental science and my commitment to sustainability make me an effective volunteer. Volunteering allows me to contribute to a healthier and more beautiful community. I am passionate about promoting environmental stewardship.</t>
+  </si>
+  <si>
+    <t>I believe that access to healthcare is a fundamental right, and I want to volunteer to support medical outreach programs. My background in healthcare and my dedication to service make me an effective volunteer. Volunteering allows me to provide essential medical care and support to underserved populations. I am committed to promoting health and well-being for all.</t>
   </si>
 </sst>
 </file>
@@ -479,15 +482,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F17D9CF2-E1B8-4EDC-A9D3-BB4FB7B5BB8F}" name="Tabela1" displayName="Tabela1" ref="A1:F31" totalsRowShown="0">
-  <autoFilter ref="A1:F31" xr:uid="{F17D9CF2-E1B8-4EDC-A9D3-BB4FB7B5BB8F}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F17D9CF2-E1B8-4EDC-A9D3-BB4FB7B5BB8F}" name="Tabela1" displayName="Tabela1" ref="A1:G31" totalsRowShown="0">
+  <autoFilter ref="A1:G31" xr:uid="{F17D9CF2-E1B8-4EDC-A9D3-BB4FB7B5BB8F}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{55521369-312D-4635-8821-390309810060}" name="id"/>
     <tableColumn id="2" xr3:uid="{7F04F0AD-E54B-4F50-B9EF-DCE93546B84E}" name="name"/>
     <tableColumn id="3" xr3:uid="{1362BCDB-67F9-4CFA-A7DB-A21C8EB7A997}" name="location"/>
     <tableColumn id="4" xr3:uid="{1EC0E257-64B3-4E7B-93F7-6E2C0B1DECB1}" name="degree"/>
     <tableColumn id="5" xr3:uid="{FE1BB42A-3E2B-4446-8061-7A31CF2103E8}" name="professional experience"/>
     <tableColumn id="6" xr3:uid="{381731F3-C12C-4751-9171-0A2E9479F254}" name="motivation"/>
+    <tableColumn id="7" xr3:uid="{6AFC2735-C774-4C67-A35A-410155359B31}" name="availability"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -756,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,7 +776,7 @@
     <col min="6" max="6" width="51.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -791,8 +795,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -809,587 +816,677 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
       <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="G6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="G15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
       <c r="F21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="G23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="G25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="G28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="G31">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
